--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Navachine/Sergueï_Navachine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Navachine/Sergueï_Navachine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Navachine</t>
+          <t>Sergueï_Navachine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Gavrilovitch Navachine (en russe: Серге́й Гаври́лович Нава́шин; en allemand: Sergei Gawrilowitsch Nawaschin), né le 2 (14) décembre 1857 à Tsariovchtchina dans le gouvernement de Saratov et mort le 10 décembre 1930 à Dietskoïe Selo, près de Pétrograd, est un botaniste russe et soviétique, spécialiste de cytologie et d'embryologie végétales qui fut professeur à l'université de Kiev à partir de 1894, membre de l'Académie bavaroise des sciences, académicien de l'Académie des sciences de Russie à partir de 1918 (dont il était membre-correspondant depuis 1901) et membre de l'Académie des sciences d'Ukraine à partir de 1924.
 Il découvre en 1898 à la double fertilisation des plantes à fleurs. Il s'est intéressé à la morphologie des chromosomes. Il est l'auteur de nombreuses publications sur la mycologie et l'anatomie comparée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Navachine</t>
+          <t>Sergueï_Navachine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Navachine</t>
+          <t>Sergueï_Navachine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Resultate einer Revision der Befruchtungsvorgänge bei Lilium martagon und Fritillaria tenella (1898)
 (de) Ueber den feineren Bau und Entwicklung von Plasmodiophora Brassicæ (1899)
